--- a/biology/Zoologie/Dendroleon/Dendroleon.xlsx
+++ b/biology/Zoologie/Dendroleon/Dendroleon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendroleon est un genre d'insectes névroptères de la famille des Myrmeleontidae (fourmilions).
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Dendroleon est créé par Friedrich Moritz Brauer en 1866.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (18 décembre 2015)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (18 décembre 2015) :
 Dendroleon amabilis (Gerstaecker, 1885)
 Dendroleon callipterus X. Wan &amp; al., 2004
 Dendroleon dumigani Tillyard, 1916
@@ -565,7 +581,7 @@
 Dendroleon similis Esben-Petersen, 1923
 Dendroleon speciosus Banks, 1905
 Dendroleon vitripennis (Navás, 1912)
-Paleobiology Database                   (18 décembre 2015)[2] rajoute l'espèce fossile suivante :
+Paleobiology Database                   (18 décembre 2015) rajoute l'espèce fossile suivante :
 Dendroleon septemmontanus</t>
         </is>
       </c>
